--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/T_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BBA19BD-ECC2-4DDE-8CE4-D1D1DA68A77A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568E4EC1-9A9B-4DEF-A960-722C2268F9C8}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>853954.4</v>
+        <v>213596.7041</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -524,7 +524,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>569.30293333333339</v>
+        <v>142.39780273333332</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568E4EC1-9A9B-4DEF-A960-722C2268F9C8}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896B55A5-0954-4C1A-9230-CE2B2850A8E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,6 +164,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>213596.7041</v>
+        <v>480592.584225</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -524,7 +528,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>142.39780273333332</v>
+        <v>320.39505615000002</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896B55A5-0954-4C1A-9230-CE2B2850A8E8}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8F8CEB-3280-498B-99F1-5D6613445AAC}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8F8CEB-3280-498B-99F1-5D6613445AAC}"/>
+  <xr:revisionPtr revIDLastSave="2548" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4FFFBE-76A7-43B8-93C3-D365D51F0879}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2548" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4FFFBE-76A7-43B8-93C3-D365D51F0879}"/>
+  <xr:revisionPtr revIDLastSave="2550" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B038EA8-3ACF-423E-B78E-C9EF60B57F68}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>480592.584225</v>
+        <v>511054.76033279998</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -528,7 +524,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>320.39505615000002</v>
+        <v>340.70317355520001</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2550" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B038EA8-3ACF-423E-B78E-C9EF60B57F68}"/>
+  <xr:revisionPtr revIDLastSave="2556" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCBAC18-AF5A-444C-AEB2-75FF345B56CB}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,6 +164,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -512,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>511054.76033279998</v>
+        <v>85132.684800000003</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -524,7 +528,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>340.70317355520001</v>
+        <v>56.717311658894076</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2556" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCBAC18-AF5A-444C-AEB2-75FF345B56CB}"/>
+  <xr:revisionPtr revIDLastSave="2776" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7E69CA-8724-480A-8C49-925A4F0FE97E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>85132.684800000003</v>
+        <v>212831.54173463001</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -528,7 +524,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>56.717311658894076</v>
+        <v>141.7931657126116</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>

--- a/T_to_Boil/Time_To_Boil.xlsx
+++ b/T_to_Boil/Time_To_Boil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/T_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2776" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7E69CA-8724-480A-8C49-925A4F0FE97E}"/>
+  <xr:revisionPtr revIDLastSave="7860" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{062EE4AA-2068-44B5-89C9-21EA92E28F54}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
@@ -164,6 +164,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>212831.54173463001</v>
+        <v>425667.25497081602</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -524,7 +528,7 @@
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
-        <v>141.7931657126116</v>
+        <v>283.58911057349502</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
